--- a/selanik/cesmeUST.xlsx
+++ b/selanik/cesmeUST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\jcts\selanik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF033BD0-D511-4C5B-9C6C-B6BE2F63F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0E7B8-058F-4EB1-A4C7-AB23D1FEFE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="750" windowWidth="17895" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>m2</t>
   </si>
@@ -82,13 +82,19 @@
   </si>
   <si>
     <t>ÇEŞME - 7 DAİRE BAZALT ÖLÇÜLERİ</t>
+  </si>
+  <si>
+    <t>b.fiyat</t>
+  </si>
+  <si>
+    <t>tutar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +131,48 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,16 +189,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +266,425 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>187075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>369331</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Resim 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A50A5F-DDD0-4B30-B92A-C1DF985C6AE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5363705" y="2921761"/>
+          <a:ext cx="2824409" cy="2744643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168428</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>193376</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690F39BA-176D-417D-8471-2C77C01DB4DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1627787" y="2242679"/>
+          <a:ext cx="2075795" cy="3768687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373453</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Düz Ok Bağlayıcısı 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D610B7-D773-4FF0-8DA8-6F01AEBF7457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4431196" y="2921761"/>
+          <a:ext cx="2344714" cy="1799326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166394</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Düz Ok Bağlayıcısı 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE72AC1-B792-49AA-B387-506F677C195F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7330851" y="3329609"/>
+          <a:ext cx="1374171" cy="1820060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>811696</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Düz Ok Bağlayıcısı 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A1D6ED-C8DD-44E4-A1C3-9997B0331CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977348" y="1076739"/>
+          <a:ext cx="1399761" cy="2782957"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1325217</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Düz Ok Bağlayıcısı 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77AE23EA-3E10-4B50-A390-911AF67807D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4331804" y="1068457"/>
+          <a:ext cx="2228022" cy="2722693"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1134717</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Düz Ok Bağlayıcısı 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5C459C-48CC-41F3-803C-78407EC03EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2700130" y="2426804"/>
+          <a:ext cx="2642153" cy="2078935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1341783</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Düz Ok Bağlayıcısı 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F01CC9-3EF6-42C3-A284-24B1C4926D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4348370" y="2443370"/>
+          <a:ext cx="2343978" cy="2054087"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,9 +962,12 @@
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -463,10 +975,10 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -477,8 +989,25 @@
         <v>13</v>
       </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>180</v>
       </c>
@@ -495,8 +1024,23 @@
       <c r="G5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="10"/>
+      <c r="I5">
+        <v>600</v>
+      </c>
+      <c r="J5">
+        <f>I5*B5</f>
+        <v>108000</v>
+      </c>
+      <c r="M5">
+        <v>850</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N10" si="0">M5*B5</f>
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>70</v>
       </c>
@@ -507,14 +1051,29 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F10" si="0">ROUNDUP(B6/7,0)</f>
+        <f t="shared" ref="F6:F10" si="1">ROUNDUP(B6/7,0)</f>
         <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="10"/>
+      <c r="I6">
+        <v>600</v>
+      </c>
+      <c r="J6">
+        <f>I6*B6</f>
+        <v>42000</v>
+      </c>
+      <c r="M6">
+        <v>850</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>70</v>
       </c>
@@ -528,14 +1087,32 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="10">
+        <f>B7*0.3</f>
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>700</v>
+      </c>
+      <c r="J7">
+        <f>I7*H7</f>
+        <v>14700</v>
+      </c>
+      <c r="M7">
+        <v>525</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>146</v>
       </c>
@@ -549,14 +1126,32 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="10">
+        <f>B8*0.3</f>
+        <v>43.8</v>
+      </c>
+      <c r="I8">
+        <v>700</v>
+      </c>
+      <c r="J8">
+        <f>I8*H8</f>
+        <v>30659.999999999996</v>
+      </c>
+      <c r="M8">
+        <v>375</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>54750</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>120</v>
       </c>
@@ -567,14 +1162,32 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="10">
+        <f>B9*0.15</f>
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <f>I9*H9</f>
+        <v>9000</v>
+      </c>
+      <c r="M9">
+        <v>142.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>28</v>
       </c>
@@ -588,19 +1201,41 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="10">
+        <f>B10*0.35</f>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="I10">
+        <v>700</v>
+      </c>
+      <c r="J10">
+        <f>I10*H10</f>
+        <v>6859.9999999999991</v>
+      </c>
+      <c r="M10">
+        <v>450</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -613,10 +1248,49 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H13" s="11">
+        <f>B13*0.35</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="I13">
+        <v>700</v>
+      </c>
+      <c r="J13">
+        <f>I13*H13</f>
+        <v>2939.9999999999995</v>
+      </c>
+      <c r="M13">
+        <v>300</v>
+      </c>
+      <c r="N13">
+        <f>M13*B13</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="6">
+        <f>SUM(J5:J14)</f>
+        <v>214160</v>
+      </c>
+      <c r="N15" s="5">
+        <f>SUM(N5:N14)</f>
+        <v>337300</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N17" s="6">
+        <f>SUM(N15:N16)</f>
+        <v>346300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>